--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed2/result_data_RandomForest.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.701099999999999</v>
+        <v>-8.667399999999994</v>
       </c>
     </row>
     <row r="4">
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.500199999999998</v>
+        <v>-8.2547</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.459199999999994</v>
+        <v>-8.2699</v>
       </c>
     </row>
     <row r="22">
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.0756</v>
+        <v>-8.047899999999997</v>
       </c>
     </row>
     <row r="24">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.845399999999995</v>
+        <v>-7.839599999999994</v>
       </c>
     </row>
     <row r="26">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.381900000000002</v>
+        <v>-7.226700000000005</v>
       </c>
     </row>
     <row r="27">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.296300000000001</v>
+        <v>-7.378400000000003</v>
       </c>
     </row>
     <row r="30">
@@ -1180,7 +1180,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.2034</v>
+        <v>-8.268299999999996</v>
       </c>
     </row>
     <row r="54">
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.276499999999993</v>
+        <v>-8.140699999999995</v>
       </c>
     </row>
     <row r="58">
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.344399999999995</v>
+        <v>-8.291099999999993</v>
       </c>
     </row>
     <row r="60">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.672299999999995</v>
+        <v>-7.689899999999994</v>
       </c>
     </row>
     <row r="70">
@@ -1544,7 +1544,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.267900000000001</v>
+        <v>-7.381500000000004</v>
       </c>
     </row>
     <row r="80">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.025599999999995</v>
+        <v>-9.091499999999998</v>
       </c>
     </row>
     <row r="84">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.0732</v>
+        <v>-8.035499999999997</v>
       </c>
     </row>
     <row r="92">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.052199999999994</v>
+        <v>-6.908499999999991</v>
       </c>
     </row>
     <row r="94">
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.665199999999996</v>
+        <v>-7.802799999999995</v>
       </c>
     </row>
     <row r="104">
